--- a/Overige mijlpaalproducten/Product backlog (WIP).xlsx
+++ b/Overige mijlpaalproducten/Product backlog (WIP).xlsx
@@ -125,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -166,28 +166,58 @@
         <color theme="9" tint="-0.24994659260841701"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -198,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -210,34 +240,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -583,217 +618,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
     <col min="3" max="3" width="82.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="10"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="10"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="10"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>2</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="15">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="15">
         <v>7</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="15">
         <v>8</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="15">
         <v>9</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="15">
         <v>11</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="15">
         <v>13</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="15">
         <v>14</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="15">
         <v>15</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="15">
         <v>16</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="15">
         <v>17</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="7"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Overige mijlpaalproducten/Product backlog (WIP).xlsx
+++ b/Overige mijlpaalproducten/Product backlog (WIP).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\Documents\GitHub\Project-Data\Overige mijlpaalproducten\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Als analist wil ik kunnen zien welke leeftijdsgroepen de SS Rotterdam bezoeken</t>
   </si>
@@ -57,6 +52,15 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Als analist wil ik dat er gegevens van Twitter worden gehaald.</t>
+  </si>
+  <si>
+    <t>Als analist wil ik dat er gegevens van Facebook worden gehaald.</t>
+  </si>
+  <si>
+    <t>Als analist wil ik dat de database te sorteren is op positief/negatief/etc..</t>
   </si>
 </sst>
 </file>
@@ -228,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -250,14 +254,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,9 +275,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,7 +404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,7 +439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,77 +627,77 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="82.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="8"/>
+    <col min="3" max="3" width="82.5546875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>3</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
       <c r="B9" s="6"/>
@@ -697,138 +705,144 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>5</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>8</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>9</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>10</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>12</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>13</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>14</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>15</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>16</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>17</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="D23" s="1"/>

--- a/Overige mijlpaalproducten/Product backlog (WIP).xlsx
+++ b/Overige mijlpaalproducten/Product backlog (WIP).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Project-Data\Overige mijlpaalproducten\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Als analist wil ik kunnen zien welke leeftijdsgroepen de SS Rotterdam bezoeken</t>
   </si>
@@ -61,6 +66,9 @@
   </si>
   <si>
     <t>Als analist wil ik dat de database te sorteren is op positief/negatief/etc..</t>
+  </si>
+  <si>
+    <t>Als analist wil ik kunnen zien wat de doelgroep is.</t>
   </si>
 </sst>
 </file>
@@ -283,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,41 +635,41 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" style="8"/>
-    <col min="3" max="3" width="82.5546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="82.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="5"/>
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5"/>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5"/>
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -674,7 +682,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2</v>
       </c>
@@ -685,7 +693,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>3</v>
       </c>
@@ -696,7 +704,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>4</v>
       </c>
@@ -705,7 +713,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>5</v>
       </c>
@@ -714,7 +722,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>6</v>
       </c>
@@ -727,7 +735,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>7</v>
       </c>
@@ -738,7 +746,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>8</v>
       </c>
@@ -749,7 +757,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -760,16 +768,18 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>10</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>11</v>
       </c>
@@ -782,7 +792,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>12</v>
       </c>
@@ -793,7 +803,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>13</v>
       </c>
@@ -802,7 +812,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>14</v>
       </c>
@@ -811,7 +821,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>15</v>
       </c>
@@ -824,7 +834,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>16</v>
       </c>
@@ -833,7 +843,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>17</v>
       </c>
@@ -842,7 +852,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="D23" s="1"/>
